--- a/2022_09_12_query/RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022.xlsx
+++ b/2022_09_12_query/RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AROMASIL INDÚSTRIA, COMÉRCO E DISTRIBUIÇÃO LTDA</t>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06889-6</t>
+          <t xml:space="preserve"> 3.09861-7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESIFETANTE HORTIFRUTÍCOLA - AROMASIL</t>
+          <t xml:space="preserve"> Auro Desinfetante</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -534,6 +534,46 @@
           <t xml:space="preserve"> Auro Desinfetante</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.432528/2021-28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9861.0001.001-7</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brisa do Oceano 500 mL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,7 +604,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9861.0001.001-7</t>
+          <t xml:space="preserve"> 3.9861.0001.002-5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -579,7 +619,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brisa do Oceano 500 mL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Brisa do Oceano 1L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -627,7 +667,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9861.0001.002-5</t>
+          <t xml:space="preserve"> 3.9861.0001.003-3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -642,7 +682,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brisa do Oceano 1L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Brisa do Oceano 2L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -690,7 +730,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9861.0001.003-3</t>
+          <t xml:space="preserve"> 3.9861.0001.004-1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -705,7 +745,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brisa do Oceano 2L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Brisa do Oceano 5L + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -753,7 +793,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9861.0001.004-1</t>
+          <t xml:space="preserve"> 3.9861.0001.005-1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -768,7 +808,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brisa do Oceano 5L + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Limão 500 mL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -816,7 +856,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9861.0001.005-1</t>
+          <t xml:space="preserve"> 3.9861.0001.006-8</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -831,7 +871,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Limão 500 mL + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Limão 1L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -879,7 +919,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9861.0001.006-8</t>
+          <t xml:space="preserve"> 3.9861.0001.007-6</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -894,7 +934,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Limão 1L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Limão 2L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -922,17 +962,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+          <t xml:space="preserve"> BASTON INDÚSTRIA DE AEROSSOIS LTDA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09861-7</t>
+          <t xml:space="preserve"> 3.04067-3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Auro Desinfetante</t>
+          <t xml:space="preserve"> ÁLCOOL AEROSSOL SUPER DOM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -942,7 +982,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9861.0001.007-6</t>
+          <t xml:space="preserve"> 3.9861.0001.008-4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -957,7 +997,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Limão 2L + FRASCO DE PLASTICO TRANSPARENTE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Limão 5L + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -985,27 +1025,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+          <t xml:space="preserve"> BAUMINAS HIDROAZUL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09861-7</t>
+          <t xml:space="preserve"> 3.02108-2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Auro Desinfetante</t>
+          <t xml:space="preserve"> CLOROCAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.432528/2021-28</t>
+          <t xml:space="preserve"> 25351.023555/2022-94</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9861.0001.008-4</t>
+          <t xml:space="preserve"> 3.4067.0078.001-8</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1020,7 +1060,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Limão 5L + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> VERSÃO 1 + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1048,17 +1088,57 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BASTON INDÚSTRIA DE AEROSSOIS LTDA</t>
+          <t xml:space="preserve"> BAUMINAS HIDROAZUL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04067-3</t>
+          <t xml:space="preserve"> 3.02108-2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL AEROSSOL SUPER DOM</t>
+          <t xml:space="preserve"> CLOROCAL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.605821/2021-11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2108.0036.001-6</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/2031</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1071,57 +1151,57 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BASTON INDÚSTRIA DE AEROSSOIS LTDA</t>
+          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04067-3</t>
+          <t xml:space="preserve"> 3.00539-9</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL AEROSSOL SUPER DOM</t>
+          <t xml:space="preserve"> TRICLOROBEL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023555/2022-94</t>
+          <t xml:space="preserve"> 25351.605821/2021-11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4067.0078.001-8</t>
+          <t xml:space="preserve"> 3.2108.0036.002-4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 11/2031</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERSÃO 1 + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1134,17 +1214,57 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BAUMINAS HIDROAZUL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02108-2</t>
+          <t xml:space="preserve"> 3.00539-9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLOROCAL</t>
+          <t xml:space="preserve"> TRICLOROBEL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.523722/2013-45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0539.0015.001-4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2029</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLISTER DE ALUMINIO</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1157,47 +1277,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BAUMINAS HIDROAZUL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02108-2</t>
+          <t xml:space="preserve"> 3.00539-9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLOROCAL</t>
+          <t xml:space="preserve"> TRICLOROBEL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.605821/2021-11</t>
+          <t xml:space="preserve"> 25351.523722/2013-45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2108.0036.001-6</t>
+          <t xml:space="preserve"> 3.0539.0015.002-2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2031</t>
+          <t xml:space="preserve"> 04/2029</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> TUBO DE PLASTICO OPACO</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1220,47 +1340,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BAUMINAS HIDROAZUL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02108-2</t>
+          <t xml:space="preserve"> 3.00539-9</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLOROCAL</t>
+          <t xml:space="preserve"> TRICLOROBEL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.605821/2021-11</t>
+          <t xml:space="preserve"> 25351.523722/2013-45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2108.0036.002-4</t>
+          <t xml:space="preserve"> 3.0539.0015.003-0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2031</t>
+          <t xml:space="preserve"> 04/2029</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TAMBOR PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BALDE PLASTICO</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1296,6 +1416,46 @@
           <t xml:space="preserve"> TRICLOROBEL</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.523722/2013-45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0539.0015.004-9</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2029</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TAMBOR PLASTICO</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1306,17 +1466,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
+          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00539-9</t>
+          <t xml:space="preserve"> 3.02711-4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRICLOROBEL</t>
+          <t xml:space="preserve"> LIMPA PEDRAS DECAPISO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1326,7 +1486,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0539.0015.001-4</t>
+          <t xml:space="preserve"> 3.0539.0015.005-7</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1341,7 +1501,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BLISTER DE ALUMINIO</t>
+          <t xml:space="preserve"> POTE DE PLASTICO OPACO</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1369,42 +1529,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
+          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00539-9</t>
+          <t xml:space="preserve"> 3.02711-4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRICLOROBEL</t>
+          <t xml:space="preserve"> LIMPA PEDRAS DECAPISO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.523722/2013-45</t>
+          <t xml:space="preserve"> 25351.676328/2012-48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0539.0015.002-2</t>
+          <t xml:space="preserve"> 3.2711.0012.001-4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2029</t>
+          <t xml:space="preserve"> 04/2028</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TUBO DE PLASTICO OPACO</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1414,12 +1574,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -1432,42 +1592,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00539-9</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRICLOROBEL</t>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.523722/2013-45</t>
+          <t xml:space="preserve"> 25351.676328/2012-48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0539.0015.003-0</t>
+          <t xml:space="preserve"> 3.2711.0012.002-2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2029</t>
+          <t xml:space="preserve"> 04/2028</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BALDE PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1477,12 +1637,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -1495,27 +1655,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00539-9</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRICLOROBEL</t>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.523722/2013-45</t>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0539.0015.004-9</t>
+          <t xml:space="preserve"> 3.0754.0008.001-8</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1525,12 +1685,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TAMBOR PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1540,12 +1700,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1558,27 +1718,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00539-9</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRICLOROBEL</t>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.523722/2013-45</t>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0539.0015.005-7</t>
+          <t xml:space="preserve"> 3.0754.0008.002-6</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1588,12 +1748,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2029</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POTE DE PLASTICO OPACO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1603,12 +1763,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1781,57 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02711-4</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS DECAPISO</t>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.003-4</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1644,42 +1844,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02711-4</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS DECAPISO</t>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.676328/2012-48</t>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2711.0012.001-4</t>
+          <t xml:space="preserve"> 3.0754.0008.004-2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1689,12 +1889,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1707,42 +1907,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02711-4</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS DECAPISO</t>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.676328/2012-48</t>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2711.0012.002-2</t>
+          <t xml:space="preserve"> 3.0754.0008.005-0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2028</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1752,12 +1952,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1783,6 +1983,46 @@
           <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.026378/2022-06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0754.0008.006-9</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1813,7 +2053,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.001-8</t>
+          <t xml:space="preserve"> 3.0754.0008.007-7</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1876,7 +2116,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.002-6</t>
+          <t xml:space="preserve"> 3.0754.0008.008-5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1891,7 +2131,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1939,7 +2179,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.003-4</t>
+          <t xml:space="preserve"> 3.0754.0008.009-3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1954,7 +2194,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2002,7 +2242,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.004-2</t>
+          <t xml:space="preserve"> 3.0754.0008.010-7</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2065,7 +2305,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.005-0</t>
+          <t xml:space="preserve"> 3.0754.0008.011-5</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2128,7 +2368,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.006-9</t>
+          <t xml:space="preserve"> 3.0754.0008.012-3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2191,7 +2431,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.007-7</t>
+          <t xml:space="preserve"> 3.0754.0008.013-1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2254,7 +2494,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.008-5</t>
+          <t xml:space="preserve"> 3.0754.0008.014-1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2317,7 +2557,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.009-3</t>
+          <t xml:space="preserve"> 3.0754.0008.015-8</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2380,7 +2620,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.010-7</t>
+          <t xml:space="preserve"> 3.0754.0008.016-6</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2443,7 +2683,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.011-5</t>
+          <t xml:space="preserve"> 3.0754.0008.017-4</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2458,7 +2698,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2486,17 +2726,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> ECO QUÍMICA INDÚSTRIA HIGIENISTA LTDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.02553-9</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+          <t xml:space="preserve"> PRATIC SUPER FOOD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2506,7 +2746,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.012-3</t>
+          <t xml:space="preserve"> 3.0754.0008.018-2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2521,7 +2761,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2549,42 +2789,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> ECO QUÍMICA INDÚSTRIA HIGIENISTA LTDA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.02553-9</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+          <t xml:space="preserve"> PRATIC SUPER FOOD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.026378/2022-06</t>
+          <t xml:space="preserve"> 25351.179234/2018-67</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.013-1</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2553.0036.001-7</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2594,12 +2830,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2612,42 +2848,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> ECOLIMP S PRODUTOS DE LIMPEZA E LOCACAO DE IMOVEIS EIRELI</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.08400-8</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+          <t xml:space="preserve"> Hipoclorito 8% Mixlar</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.026378/2022-06</t>
+          <t xml:space="preserve"> 25351.179234/2018-67</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.014-1</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2553.0036.002-5</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2657,12 +2889,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2675,27 +2907,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.04145-2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+          <t xml:space="preserve"> MASTER STAIN OUT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.026378/2022-06</t>
+          <t xml:space="preserve"> 25351.990753/2020-01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.015-8</t>
+          <t xml:space="preserve"> 3.8400.0006.001-8</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2710,12 +2942,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+          <t xml:space="preserve"> Hipoclorito de Sódio 8% + GALAO PLASTICO + CAIXA DE PLASTICO</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2738,32 +2970,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.04145-2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+          <t xml:space="preserve"> MASTER STAIN OUT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.026378/2022-06</t>
+          <t xml:space="preserve"> 25351.456414/2020-92</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.016-6</t>
+          <t xml:space="preserve"> 3.4145.0075.001-9</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2773,7 +3005,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO TRANSLÚCIDO + FILME PLASTICO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2783,7 +3015,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222040 TIRA MANCHAS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2801,32 +3033,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.07087-1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+          <t xml:space="preserve"> LAV DET 1000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.026378/2022-06</t>
+          <t xml:space="preserve"> 25351.515239/2020-82</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.017-4</t>
+          <t xml:space="preserve"> 3.4145.0076.002-2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2836,7 +3068,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2846,7 +3078,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2864,32 +3096,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.07087-1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+          <t xml:space="preserve"> LAV DET 1000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.026378/2022-06</t>
+          <t xml:space="preserve"> 25351.706285/2020-99</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0754.0008.018-2</t>
+          <t xml:space="preserve"> 3.7087.0016.001-5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2899,7 +3131,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + FILME PLASTICO</t>
+          <t xml:space="preserve"> BALDE</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2909,7 +3141,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2927,17 +3159,57 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO QUÍMICA INDÚSTRIA HIGIENISTA LTDA</t>
+          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02553-9</t>
+          <t xml:space="preserve"> 3.04407-8</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRATIC SUPER FOOD</t>
+          <t xml:space="preserve"> PROACTION OXI</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.706285/2020-99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.7087.0016.002-3</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2032</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACO</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2950,38 +3222,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO QUÍMICA INDÚSTRIA HIGIENISTA LTDA</t>
+          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02553-9</t>
+          <t xml:space="preserve"> 3.04407-8</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRATIC SUPER FOOD</t>
+          <t xml:space="preserve"> PROACTION OXI</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.179234/2018-67</t>
+          <t xml:space="preserve"> 25351.098607/2017-01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2553.0036.001-7</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t xml:space="preserve"> 3.4407.0020.001-1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 05/2027</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2991,12 +3267,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -3009,38 +3285,42 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO QUÍMICA INDÚSTRIA HIGIENISTA LTDA</t>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02553-9</t>
+          <t xml:space="preserve"> 3.04020-0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRATIC SUPER FOOD</t>
+          <t xml:space="preserve"> DIOXXO</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.179234/2018-67</t>
+          <t xml:space="preserve"> 25351.098607/2017-01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2553.0036.002-5</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t xml:space="preserve"> 3.4407.0020.002-1</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 05/2027</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> GALAO PLASTICO</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3050,12 +3330,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -3068,17 +3348,57 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOLIMP S PRODUTOS DE LIMPEZA E LOCACAO DE IMOVEIS EIRELI</t>
+          <t xml:space="preserve"> INDUSTRIA ITALIANA IMPORTADORA E DISTRIBUIDORA LTDA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08400-8</t>
+          <t xml:space="preserve"> 3.05859-6</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hipoclorito 8% Mixlar</t>
+          <t xml:space="preserve"> PROTTETE ULTRA 4D</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.236013/2013-34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4020.0021.001-1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 07/2028</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -3091,32 +3411,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOLIMP S PRODUTOS DE LIMPEZA E LOCACAO DE IMOVEIS EIRELI</t>
+          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08400-8</t>
+          <t xml:space="preserve"> 3.02599-9</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hipoclorito 8% Mixlar</t>
+          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.990753/2020-01</t>
+          <t xml:space="preserve"> 25351.909769/2020-98</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8400.0006.001-8</t>
+          <t xml:space="preserve"> 3.5859.0004.001-4</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3126,12 +3446,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hipoclorito de Sódio 8% + GALAO PLASTICO + CAIXA DE PLASTICO</t>
+          <t xml:space="preserve"> POTE DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3154,17 +3474,57 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04145-2</t>
+          <t xml:space="preserve"> 3.02599-9</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER STAIN OUT</t>
+          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.730094/2011-91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2599.0150.001-0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04/2027</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
         </is>
       </c>
     </row>
@@ -3177,27 +3537,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> NEOGEN DO BRASIL INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04145-2</t>
+          <t xml:space="preserve"> 3.00425-4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER STAIN OUT</t>
+          <t xml:space="preserve"> OZZ RI-DO-RATO PLUS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.456414/2020-92</t>
+          <t xml:space="preserve"> 25351.730094/2011-91</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4145.0075.001-9</t>
+          <t xml:space="preserve"> 3.2599.0150.002-9</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3207,27 +3567,27 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 04/2027</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222040 TIRA MANCHAS</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
         </is>
       </c>
     </row>
@@ -3240,42 +3600,38 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04145-2</t>
+          <t xml:space="preserve"> 3.03144-2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER STAIN OUT</t>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.515239/2020-82</t>
+          <t xml:space="preserve"> 25351.362508/2016-49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4145.0076.002-2</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.0425.0166.001-3</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 02/2027</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3285,12 +3641,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3303,17 +3659,57 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07087-1</t>
+          <t xml:space="preserve"> 3.03144-2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAV DET 1000</t>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.469010/2008-72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3144.0010.001-6</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/2028</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO OPACO</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -3326,57 +3722,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07087-1</t>
+          <t xml:space="preserve"> 3.03144-2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAV DET 1000</t>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.706285/2020-99</t>
+          <t xml:space="preserve"> 25351.469010/2008-72</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7087.0016.001-5</t>
+          <t xml:space="preserve"> 000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BALDE</t>
+          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -3389,42 +3780,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07087-1</t>
+          <t xml:space="preserve"> 3.01780-6</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAV DET 1000</t>
+          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.706285/2020-99</t>
+          <t xml:space="preserve"> 25351.470512/2008-46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7087.0016.002-3</t>
+          <t xml:space="preserve"> 000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 09/2023</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SACO</t>
+          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3434,12 +3825,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -3452,17 +3843,57 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04407-8</t>
+          <t xml:space="preserve"> 3.01780-6</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROACTION OXI</t>
+          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.635133/2014-74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0054.001-2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12/2029</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
         </is>
       </c>
     </row>
@@ -3475,27 +3906,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04407-8</t>
+          <t xml:space="preserve"> 3.01780-6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROACTION OXI</t>
+          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.098607/2017-01</t>
+          <t xml:space="preserve"> 25351.635133/2014-74</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4407.0020.001-1</t>
+          <t xml:space="preserve"> 3.1780.0054.002-0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3505,27 +3936,27 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 12/2029</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
         </is>
       </c>
     </row>
@@ -3538,27 +3969,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04407-8</t>
+          <t xml:space="preserve"> 3.01780-6</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROACTION OXI</t>
+          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.098607/2017-01</t>
+          <t xml:space="preserve"> 25351.635133/2014-74</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4407.0020.002-1</t>
+          <t xml:space="preserve"> 3.1780.0054.003-9</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3568,637 +3999,27 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 12/2029</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.04020-0</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DIOXXO</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.04020-0</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DIOXXO</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.236013/2013-34</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.4020.0021.001-1</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 07/2028</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Meses</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> INDUSTRIA ITALIANA IMPORTADORA E DISTRIBUIDORA LTDA</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.05859-6</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PROTTETE ULTRA 4D</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> INDUSTRIA ITALIANA IMPORTADORA E DISTRIBUIDORA LTDA</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.05859-6</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PROTTETE ULTRA 4D</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.909769/2020-98</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.5859.0004.001-4</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2032</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> POTE DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.02599-9</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.02599-9</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.730094/2011-91</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.2599.0150.001-0</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 04/2027</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12 Meses</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.02599-9</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.730094/2011-91</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.2599.0150.002-9</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 04/2027</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12 Meses</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NEOGEN DO BRASIL INDUSTRIA E COMERCIO LTDA</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00425-4</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OZZ RI-DO-RATO PLUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NEOGEN DO BRASIL INDUSTRIA E COMERCIO LTDA</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.00425-4</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OZZ RI-DO-RATO PLUS</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.362508/2016-49</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0425.0166.001-3</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02/2027</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03144-2</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03144-2</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.469010/2008-72</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3144.0010.001-6</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10/2028</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO OPACO</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12 Meses</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3210014 ALGICIDA</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03144-2</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.469010/2008-72</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 000</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12 Meses</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3210014 ALGICIDA</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
-</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03144-2</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.470512/2008-46</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 000</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 09/2023</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3210014 ALGICIDA</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
         </is>
       </c>
     </row>

--- a/2022_09_12_query/RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022.xlsx
+++ b/2022_09_12_query/RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,21 +433,6 @@
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AROMASIL INDÚSTRIA, COMÉRCO E DISTRIBUIÇÃO LTDA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.06889-6</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DESIFETANTE HORTIFRUTÍCOLA - AROMASIL</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -458,17 +443,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
+          <t xml:space="preserve"> AROMASIL INDÚSTRIA, COMÉRCO E DISTRIBUIÇÃO LTDA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09861-7</t>
+          <t xml:space="preserve"> 3.06889-6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Auro Desinfetante</t>
+          <t xml:space="preserve"> DESIFETANTE HORTIFRUTÍCOLA - AROMASIL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -962,17 +947,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BASTON INDÚSTRIA DE AEROSSOIS LTDA</t>
+          <t xml:space="preserve"> Auro Indústria Química LTDA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04067-3</t>
+          <t xml:space="preserve"> 3.09861-7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL AEROSSOL SUPER DOM</t>
+          <t xml:space="preserve"> Auro Desinfetante</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1025,17 +1010,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BAUMINAS HIDROAZUL INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> BASTON INDÚSTRIA DE AEROSSOIS LTDA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02108-2</t>
+          <t xml:space="preserve"> 3.04067-3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLOROCAL</t>
+          <t xml:space="preserve"> ÁLCOOL AEROSSOL SUPER DOM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1151,17 +1136,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
+          <t xml:space="preserve"> BAUMINAS HIDROAZUL INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00539-9</t>
+          <t xml:space="preserve"> 3.02108-2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TRICLOROBEL</t>
+          <t xml:space="preserve"> CLOROCAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1466,17 +1451,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
+          <t xml:space="preserve"> BUSCHLE LEPPER SA.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02711-4</t>
+          <t xml:space="preserve"> 3.00539-9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS DECAPISO</t>
+          <t xml:space="preserve"> TRICLOROBEL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1592,17 +1577,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
+          <t xml:space="preserve"> CRB QUIMICA INDUSTRIA E COMERCIO LTDA- EPP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10754-8</t>
+          <t xml:space="preserve"> 3.02711-4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
+          <t xml:space="preserve"> LIMPA PEDRAS DECAPISO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2726,17 +2711,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECO QUÍMICA INDÚSTRIA HIGIENISTA LTDA</t>
+          <t xml:space="preserve"> CRUZEIRO ELABORACAO DE PRODUTOS DIVERSIFICADOS LTDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02553-9</t>
+          <t xml:space="preserve"> 3.10754-8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRATIC SUPER FOOD</t>
+          <t xml:space="preserve"> DESINFETANTE USO GERAL CRUZEIRO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2848,17 +2833,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOLIMP S PRODUTOS DE LIMPEZA E LOCACAO DE IMOVEIS EIRELI</t>
+          <t xml:space="preserve"> ECO QUÍMICA INDÚSTRIA HIGIENISTA LTDA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08400-8</t>
+          <t xml:space="preserve"> 3.02553-9</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hipoclorito 8% Mixlar</t>
+          <t xml:space="preserve"> PRATIC SUPER FOOD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2907,17 +2892,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> ECOLIMP S PRODUTOS DE LIMPEZA E LOCACAO DE IMOVEIS EIRELI</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04145-2</t>
+          <t xml:space="preserve"> 3.08400-8</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER STAIN OUT</t>
+          <t xml:space="preserve"> Hipoclorito 8% Mixlar</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3033,27 +3018,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
+          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07087-1</t>
+          <t xml:space="preserve"> 3.04145-2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAV DET 1000</t>
+          <t xml:space="preserve"> MASTER STAIN OUT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.515239/2020-82</t>
+          <t xml:space="preserve"> 25351.456414/2020-92</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4145.0076.002-2</t>
+          <t xml:space="preserve"> 3.4145.0075.002-7</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3078,7 +3063,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222040 TIRA MANCHAS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3096,27 +3081,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
+          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.07087-1</t>
+          <t xml:space="preserve"> 3.04145-2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAV DET 1000</t>
+          <t xml:space="preserve"> MASTER HEAVY CLEAN ULTRA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.706285/2020-99</t>
+          <t xml:space="preserve"> 25351.515239/2020-82</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7087.0016.001-5</t>
+          <t xml:space="preserve"> 3.4145.0076.001-4</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3131,7 +3116,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BALDE</t>
+          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3141,7 +3126,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3159,27 +3144,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
+          <t xml:space="preserve"> ECOMASTER QUÍMICA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04407-8</t>
+          <t xml:space="preserve"> 3.04145-2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROACTION OXI</t>
+          <t xml:space="preserve"> MASTER HEAVY CLEAN ULTRA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.706285/2020-99</t>
+          <t xml:space="preserve"> 25351.515239/2020-82</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.7087.0016.002-3</t>
+          <t xml:space="preserve"> 3.4145.0076.002-2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3194,7 +3179,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SACO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3204,7 +3189,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
+          <t xml:space="preserve"> 3101010 DETERGENTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3222,27 +3207,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
+          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04407-8</t>
+          <t xml:space="preserve"> 3.07087-1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROACTION OXI</t>
+          <t xml:space="preserve"> LAV DET 1000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.098607/2017-01</t>
+          <t xml:space="preserve"> 25351.706285/2020-99</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4407.0020.001-1</t>
+          <t xml:space="preserve"> 3.7087.0016.001-5</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3252,12 +3237,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
+          <t xml:space="preserve"> BALDE</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3267,12 +3252,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3285,27 +3270,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+          <t xml:space="preserve"> EXIMIA INDUSTRIAL EIRELI-ME</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04020-0</t>
+          <t xml:space="preserve"> 3.07087-1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DIOXXO</t>
+          <t xml:space="preserve"> LAV DET 1000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.098607/2017-01</t>
+          <t xml:space="preserve"> 25351.706285/2020-99</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4407.0020.002-1</t>
+          <t xml:space="preserve"> 3.7087.0016.002-3</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3315,12 +3300,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO</t>
+          <t xml:space="preserve"> SACO</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3330,12 +3315,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3103071 DETERGENTE PARA LAVAR ROUPAS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3348,27 +3333,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDUSTRIA ITALIANA IMPORTADORA E DISTRIBUIDORA LTDA</t>
+          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05859-6</t>
+          <t xml:space="preserve"> 3.04407-8</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROTTETE ULTRA 4D</t>
+          <t xml:space="preserve"> PROACTION OXI</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.236013/2013-34</t>
+          <t xml:space="preserve"> 25351.098607/2017-01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4020.0021.001-1</t>
+          <t xml:space="preserve"> 3.4407.0020.001-1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3378,27 +3363,27 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07/2028</t>
+          <t xml:space="preserve"> 05/2027</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -3411,27 +3396,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> GROW QUIMICA E FARMACEUTICA LTDA.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02599-9</t>
+          <t xml:space="preserve"> 3.04407-8</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
+          <t xml:space="preserve"> PROACTION OXI</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.909769/2020-98</t>
+          <t xml:space="preserve"> 25351.098607/2017-01</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5859.0004.001-4</t>
+          <t xml:space="preserve"> 3.4407.0020.002-1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3441,12 +3426,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2032</t>
+          <t xml:space="preserve"> 05/2027</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POTE DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> GALAO PLASTICO</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3456,12 +3441,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -3474,27 +3459,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02599-9</t>
+          <t xml:space="preserve"> 3.04020-0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
+          <t xml:space="preserve"> DIOXXO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.730094/2011-91</t>
+          <t xml:space="preserve"> 25351.236013/2013-34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2599.0150.001-0</t>
+          <t xml:space="preserve"> 3.4020.0021.001-1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3504,17 +3489,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2027</t>
+          <t xml:space="preserve"> 07/2028</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3524,7 +3509,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -3537,27 +3522,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NEOGEN DO BRASIL INDUSTRIA E COMERCIO LTDA</t>
+          <t xml:space="preserve"> INDUSTRIA ITALIANA IMPORTADORA E DISTRIBUIDORA LTDA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00425-4</t>
+          <t xml:space="preserve"> 3.05859-6</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OZZ RI-DO-RATO PLUS</t>
+          <t xml:space="preserve"> PROTTETE ULTRA 4D</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.730094/2011-91</t>
+          <t xml:space="preserve"> 25351.909769/2020-98</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2599.0150.002-9</t>
+          <t xml:space="preserve"> 3.5859.0004.001-4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3567,27 +3552,27 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04/2027</t>
+          <t xml:space="preserve"> 02/2032</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> POTE DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3600,53 +3585,57 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
+          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03144-2</t>
+          <t xml:space="preserve"> 3.02599-9</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
+          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.362508/2016-49</t>
+          <t xml:space="preserve"> 25351.730094/2011-91</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0425.0166.001-3</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t xml:space="preserve"> 3.2599.0150.001-0</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02/2027</t>
+          <t xml:space="preserve"> 04/2027</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
         </is>
       </c>
     </row>
@@ -3659,42 +3648,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
+          <t xml:space="preserve"> MULTQUÍMICA PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03144-2</t>
+          <t xml:space="preserve"> 3.02599-9</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
+          <t xml:space="preserve"> GLACIAL ACÉTIC</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.469010/2008-72</t>
+          <t xml:space="preserve"> 25351.730094/2011-91</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3144.0010.001-6</t>
+          <t xml:space="preserve"> 3.2599.0150.002-9</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10/2028</t>
+          <t xml:space="preserve"> 04/2027</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLÁSTICO OPACO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3704,12 +3693,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 3769 REG. SANEANTES - Recurso Administrativo</t>
         </is>
       </c>
     </row>
@@ -3722,27 +3711,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
+          <t xml:space="preserve"> NEOGEN DO BRASIL INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03144-2</t>
+          <t xml:space="preserve"> 3.00425-4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
+          <t xml:space="preserve"> OZZ RI-DO-RATO PLUS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.469010/2008-72</t>
+          <t xml:space="preserve"> 25351.007795/2011-34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 000</t>
+          <t xml:space="preserve"> 3.0425.0137.001-5</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3750,24 +3739,29 @@
           <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02/2026</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
+          <t xml:space="preserve"> SACO PLASTICO</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3780,42 +3774,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> NEOGEN DO BRASIL INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01780-6</t>
+          <t xml:space="preserve"> 3.00425-4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
+          <t xml:space="preserve"> INSETICIDA IG MAX</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.470512/2008-46</t>
+          <t xml:space="preserve"> 25351.362508/2016-49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 000</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.0425.0166.001-3</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 09/2023</t>
+          <t xml:space="preserve"> 02/2027</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3825,12 +3815,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3843,57 +3833,57 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01780-6</t>
+          <t xml:space="preserve"> 3.03144-2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.635133/2014-74</t>
+          <t xml:space="preserve"> 25351.469010/2008-72</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1780.0054.001-2</t>
+          <t xml:space="preserve"> 3.3144.0010.001-6</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12/2029</t>
+          <t xml:space="preserve"> 10/2028</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLÁSTICO OPACO</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -3906,57 +3896,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01780-6</t>
+          <t xml:space="preserve"> 3.03144-2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.635133/2014-74</t>
+          <t xml:space="preserve"> 25351.469010/2008-72</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1780.0054.002-0</t>
+          <t xml:space="preserve"> 000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12/2029</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -3969,55 +3954,418 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03144-2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE MANUTENÇÃO</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.469010/2008-72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALÃO PLÁSTICO</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03144-2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE CHOQUE</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.470512/2008-46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3144.0009.001-0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/2023</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03144-2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE CHOQUE</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.470512/2008-46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALÃO PLÁSTICO</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIL INDÚSTRIA E COMÉRCIO S/A</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03144-2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Q-CLOR ALGICIDA DE CHOQUE</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.470512/2008-46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLÁSTICA OPACA</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3210014 ALGICIDA</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.01780-6</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t xml:space="preserve"> ENZI-TEC EXTRA</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t xml:space="preserve"> 25351.635133/2014-74</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0054.001-2</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12/2029</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01780-6</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.635133/2014-74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1780.0054.002-0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12/2029</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 430, DE 10 DE FEVEREIRO DE 2022
+</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECPON INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTDA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01780-6</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENZI-TEC EXTRA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.635133/2014-74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.1780.0054.003-9</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12/2029</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t xml:space="preserve"> BOMBONA PLASTICA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3222020 DETERGENTE ENZIMÁTICO</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t xml:space="preserve"> 334 REG. SANEANTES - Revalidação de Registro</t>
         </is>
